--- a/ficha_Entrenador.xlsx
+++ b/ficha_Entrenador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfon\Desktop\Programas pruebas\PYTHON\JUEGO POKEMON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B3390-2792-4F4E-8ECE-5A8D1ADAD3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5368A62D-957B-4E43-9145-6BD08481D6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52B1BFE4-D85B-4888-858C-145C07091B63}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52B1BFE4-D85B-4888-858C-145C07091B63}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugador 4" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>FICHA DE ENTRENADOR</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>ID: JUGADOR 4</t>
+  </si>
+  <si>
+    <t>PORYGON</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>ZUBAT</t>
+  </si>
+  <si>
+    <t>VENENO</t>
+  </si>
+  <si>
+    <t>VOLADOR</t>
+  </si>
+  <si>
+    <t>GYARADOUS</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>FUEGO, TIERRA</t>
+  </si>
+  <si>
+    <t>GLOOM</t>
+  </si>
+  <si>
+    <t>HIERBA</t>
+  </si>
+  <si>
+    <t>AGUA, SIQUICO</t>
   </si>
 </sst>
 </file>
@@ -344,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -419,6 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD96226-7A3B-47DE-89AF-21772E54CD63}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1365,9 @@
       <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1346,7 +1382,9 @@
       <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1361,7 +1399,9 @@
       <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1374,7 +1414,9 @@
       <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1455,7 +1497,9 @@
       <c r="I13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,35 +1512,45 @@
       <c r="I14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13">
+        <v>3</v>
+      </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="13">
+        <v>3</v>
+      </c>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1574,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6D5D94-C02A-4B9A-89F1-B5B78091D2F0}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,8 +1645,8 @@
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -1605,7 +1659,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32"/>
       <c r="C4" s="64" t="s">
         <v>0</v>
@@ -1617,10 +1671,12 @@
       <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="35" t="s">
         <v>17</v>
@@ -1632,10 +1688,12 @@
       <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
       <c r="C6" s="35" t="s">
         <v>2</v>
@@ -1647,10 +1705,12 @@
       <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -1660,10 +1720,18 @@
       <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -1673,10 +1741,12 @@
       <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1689,7 +1759,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -1702,7 +1772,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
       <c r="C11" s="35" t="s">
         <v>3</v>
@@ -1718,7 +1788,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
@@ -1731,7 +1801,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -1741,10 +1811,12 @@
       <c r="I13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -1754,35 +1826,45 @@
       <c r="I14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13">
+        <v>4</v>
+      </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="13">
+        <v>4</v>
+      </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1862,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD178BD3-FB03-4C63-8EC2-0E9DBF399C16}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1985,9 @@
       <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1918,7 +2002,9 @@
       <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1933,7 +2019,9 @@
       <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1946,7 +2034,9 @@
       <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1959,7 +2049,9 @@
       <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">

--- a/ficha_Entrenador.xlsx
+++ b/ficha_Entrenador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfon\Desktop\Programas pruebas\PYTHON\JUEGO POKEMON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5368A62D-957B-4E43-9145-6BD08481D6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA259D5-D54C-415D-9018-240B685CC364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52B1BFE4-D85B-4888-858C-145C07091B63}"/>
+    <workbookView xWindow="32400" yWindow="3330" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{52B1BFE4-D85B-4888-858C-145C07091B63}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugador 4" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t>FICHA DE ENTRENADOR</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>AGUA, SIQUICO</t>
+  </si>
+  <si>
+    <t>NIDORAN HEMBRA</t>
   </si>
 </sst>
 </file>
@@ -440,6 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,7 +456,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,10 +1072,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="56"/>
@@ -1324,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD96226-7A3B-47DE-89AF-21772E54CD63}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,10 +1358,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="21"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
@@ -1548,7 +1551,7 @@
       <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="62" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="14"/>
@@ -1572,21 +1575,27 @@
       <c r="I22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="13"/>
+      <c r="J23" s="13">
+        <v>2</v>
+      </c>
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="13">
+        <v>2</v>
+      </c>
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="9:11" x14ac:dyDescent="0.25">
@@ -1630,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6D5D94-C02A-4B9A-89F1-B5B78091D2F0}">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1670,10 @@
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -1862,7 +1871,7 @@
       <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="62" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="14"/>
@@ -1944,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD178BD3-FB03-4C63-8EC2-0E9DBF399C16}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,10 +1984,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
